--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liveproject\Hybrid_FrameWork\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8645504B-6240-4385-A325-941076C3D76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43790C46-B7E0-4848-A146-E4C2B79A3359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AB588EFF-6F67-4E38-833E-4E60391F69D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{AB588EFF-6F67-4E38-833E-4E60391F69D7}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="90">
   <si>
     <t>TCID</t>
   </si>
@@ -184,13 +175,130 @@
     <t>closeBrowser</t>
   </si>
   <si>
+    <t>Wait for stock item</t>
+  </si>
+  <si>
+    <t>//a[text()='Stock Items ']</t>
+  </si>
+  <si>
+    <t>xpah</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>dropDownAction</t>
+  </si>
+  <si>
+    <t>x_Category</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Category']</t>
+  </si>
+  <si>
+    <t>x_Stock_Number</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>captureStock</t>
+  </si>
+  <si>
+    <t>x_Stock_Name</t>
+  </si>
+  <si>
+    <t>x_Unit_Of_Measurement</t>
+  </si>
+  <si>
+    <t>Click stock items link</t>
+  </si>
+  <si>
+    <t>Wait for add icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click addicon </t>
+  </si>
+  <si>
+    <t>Wait for catogory listbox</t>
+  </si>
+  <si>
+    <t>Select item in catogory</t>
+  </si>
+  <si>
+    <t>Select item in supplier number</t>
+  </si>
+  <si>
+    <t>Capture stock number</t>
+  </si>
+  <si>
+    <t>Enter stock name</t>
+  </si>
+  <si>
+    <t>Select item in unit of measurement</t>
+  </si>
+  <si>
+    <t>Enter purchasing price</t>
+  </si>
+  <si>
+    <t>Enter selling price</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>Selling Puzzels</t>
+  </si>
+  <si>
+    <t>x_Purchasing_Price</t>
+  </si>
+  <si>
+    <t>x_Selling_Price</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Verify stock number</t>
+  </si>
+  <si>
+    <t>stockTable</t>
+  </si>
+  <si>
+    <t>Wait for confirm ok button</t>
+  </si>
+  <si>
+    <t>Click confirm ok  button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for alert ok</t>
+  </si>
+  <si>
+    <t>Click alert ok</t>
+  </si>
+  <si>
+    <t>(//button[starts-with(text(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
     <t>pass</t>
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -198,7 +306,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,115 +349,343 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -406,12 +742,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -433,6 +772,44 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +1127,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,10 +1159,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s" s="22">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="8">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
@@ -796,10 +1173,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="23">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="64">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
@@ -812,8 +1189,8 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="24">
-        <v>50</v>
+      <c r="D4" t="s" s="65">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
@@ -826,8 +1203,8 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="25">
-        <v>50</v>
+      <c r="D5" t="s" s="66">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -839,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF8435-E577-48AC-988E-2FCFADD2EEB8}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,9 +1265,7 @@
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s" s="5">
-        <v>48</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -908,9 +1283,7 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s" s="7">
-        <v>48</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
@@ -928,9 +1301,7 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="9">
-        <v>48</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -948,9 +1319,7 @@
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s" s="11">
-        <v>48</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
@@ -968,9 +1337,7 @@
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s" s="13">
-        <v>48</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
@@ -988,9 +1355,7 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s" s="15">
-        <v>48</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
@@ -1008,9 +1373,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="17">
-        <v>48</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1028,9 +1391,7 @@
       <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s" s="19">
-        <v>48</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
@@ -1048,9 +1409,7 @@
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s" s="21">
-        <v>48</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
@@ -1059,9 +1418,15 @@
       <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
   </sheetData>
@@ -1071,19 +1436,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CF4CB3-2AB7-4D9F-958A-F07A6DBB759C}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1796875"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.7265625"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="9.54296875"/>
   </cols>
   <sheetData>
@@ -1106,6 +1472,584 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s" s="19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s" s="23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="29">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="31">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s" s="35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s" s="37">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s" s="39">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s" s="41">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s" s="43">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F20" t="s" s="45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="6">
+        <v>500000</v>
+      </c>
+      <c r="F21" t="s" s="47">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s" s="49">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s" s="51">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="53">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s" s="55">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="57">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s" s="59">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s" s="61">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s" s="63">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liveproject\Hybrid_FrameWork\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43790C46-B7E0-4848-A146-E4C2B79A3359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75A3447-6063-4775-85EE-7E99234DB029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{AB588EFF-6F67-4E38-833E-4E60391F69D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AB588EFF-6F67-4E38-833E-4E60391F69D7}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="144">
   <si>
     <t>TCID</t>
   </si>
@@ -208,6 +208,9 @@
     <t>x_Stock_Name</t>
   </si>
   <si>
+    <t>Puzzels</t>
+  </si>
+  <si>
     <t>x_Unit_Of_Measurement</t>
   </si>
   <si>
@@ -289,7 +292,166 @@
     <t>(//button[starts-with(text(),'OK')])[6]</t>
   </si>
   <si>
-    <t>Cars</t>
+    <t>(//a[starts-with(text(),'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>Wait for supplier link</t>
+  </si>
+  <si>
+    <t>Click supplier link</t>
+  </si>
+  <si>
+    <t>Capture supplier number</t>
+  </si>
+  <si>
+    <t>capturesup</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Enter address</t>
+  </si>
+  <si>
+    <t>Enter city</t>
+  </si>
+  <si>
+    <t>Enter country</t>
+  </si>
+  <si>
+    <t>Enter contact person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter phone number </t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter mobile number </t>
+  </si>
+  <si>
+    <t>Verify supplier  number</t>
+  </si>
+  <si>
+    <t>suppliertable</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Akhlish</t>
+  </si>
+  <si>
+    <t>Ameertpet,201,flat,beside satyam</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>QedgeTech</t>
+  </si>
+  <si>
+    <t>9988221133</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>7788449933</t>
+  </si>
+  <si>
+    <t>Iam supplying lg goods</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t>Wait for customer number</t>
+  </si>
+  <si>
+    <t>Capture customer number</t>
+  </si>
+  <si>
+    <t>Enter customer name</t>
+  </si>
+  <si>
+    <t>capturecus</t>
+  </si>
+  <si>
+    <t>customertable</t>
+  </si>
+  <si>
+    <t>Verify customer  number</t>
+  </si>
+  <si>
+    <t>Wait for customer link</t>
+  </si>
+  <si>
+    <t>Click customer link</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>sita</t>
+  </si>
+  <si>
+    <t>madanapalli</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>Qedgetech</t>
+  </si>
+  <si>
+    <t>9988332211</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>8874429922</t>
+  </si>
+  <si>
+    <t>Iam customer</t>
   </si>
   <si>
     <t>Blocked</t>
@@ -306,7 +468,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="128" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +509,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="12"/>
@@ -355,349 +525,727 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <color indexed="12"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -739,19 +1287,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -810,8 +1360,73 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1126,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BD390D-473A-4EC2-B862-9E25DA478D29}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1161,8 +1776,8 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s" s="8">
-        <v>87</v>
+      <c r="D2" t="s" s="10">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
@@ -1173,10 +1788,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="64">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="11">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
@@ -1187,10 +1802,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s" s="65">
-        <v>87</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="71">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
@@ -1201,10 +1816,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="66">
-        <v>87</v>
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="131">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CF8435-E577-48AC-988E-2FCFADD2EEB8}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:F11"/>
     </sheetView>
   </sheetViews>
@@ -1438,9 +2053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CF4CB3-2AB7-4D9F-958A-F07A6DBB759C}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1489,9 +2104,7 @@
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s" s="9">
-        <v>88</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -1509,9 +2122,7 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s" s="11">
-        <v>88</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
@@ -1529,9 +2140,7 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="13">
-        <v>88</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -1549,9 +2158,7 @@
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s" s="15">
-        <v>88</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
@@ -1569,9 +2176,7 @@
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s" s="17">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
@@ -1589,9 +2194,7 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s" s="19">
-        <v>88</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
@@ -1609,9 +2212,7 @@
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="21">
-        <v>88</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -1629,18 +2230,16 @@
       <c r="E9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s" s="23">
-        <v>88</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1649,38 +2248,34 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="25">
-        <v>88</v>
-      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s" s="27">
-        <v>88</v>
-      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1689,38 +2284,34 @@
       <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="29">
-        <v>88</v>
-      </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s" s="31">
-        <v>88</v>
-      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1729,38 +2320,34 @@
       <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="33">
-        <v>88</v>
-      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" t="s" s="35">
-        <v>88</v>
-      </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1769,249 +2356,223 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" t="s" s="37">
-        <v>88</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s" s="39">
-        <v>88</v>
-      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2">
+        <v>300000</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F18" t="s" s="41">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s" s="43">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="6">
-        <v>300000</v>
-      </c>
-      <c r="F20" t="s" s="45">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="6">
-        <v>500000</v>
-      </c>
-      <c r="F21" t="s" s="47">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" t="s" s="49">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s" s="51">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="6" t="s">
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="6">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s" s="53">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s" s="55">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="6">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s" s="57">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s" s="59">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s" s="61">
-        <v>88</v>
-      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
@@ -2029,9 +2590,7 @@
       <c r="E29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F29" t="s" s="63">
-        <v>88</v>
-      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
@@ -2058,19 +2617,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1461C2E-3AB9-41FA-820C-0D7C35459D72}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1796875"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.7265625"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="9.54296875"/>
   </cols>
   <sheetData>
@@ -2094,26 +2654,648 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="14">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="18">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="20">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s" s="22">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="24">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s" s="26">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="28">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="30">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="32">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="34">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="36">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s" s="38">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s" s="40">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s" s="42">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s" s="44">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s" s="46">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s" s="48">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s" s="50">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s" s="52">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s" s="54">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s" s="56">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s" s="58">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="60">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s" s="62">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="64">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s" s="66">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s" s="68">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s" s="70">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{B98C6B88-DA46-4CB6-AF0F-5D4C57389EB7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55680ABC-5F66-47F7-9BF2-26F23E4A5496}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.1796875"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.36328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="33.7265625"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="9.54296875"/>
   </cols>
   <sheetData>
@@ -2137,7 +3319,628 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s" s="72">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="74">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="76">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="78">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="80">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s" s="82">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="84">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s" s="86">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="88">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="90">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="92">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="94">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="96">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s" s="98">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s" s="100">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s" s="102">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" t="s" s="104">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s" s="106">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s" s="108">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" t="s" s="110">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" t="s" s="112">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" t="s" s="114">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s" s="116">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s" s="118">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="120">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s" s="122">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="124">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s" s="126">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s" s="128">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s" s="130">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1" xr:uid="{D58A78F5-DEBD-4F43-B084-97D19D8B168A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>